--- a/beyond_pandas.xlsx
+++ b/beyond_pandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brad/Documents/git/dnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1615537B-6EDD-034A-8CDE-48D45F63973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE76DD38-1801-0440-8B26-1E06036E9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{5BD27400-5124-CB41-9002-4E332D095315}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="2" xr2:uid="{5BD27400-5124-CB41-9002-4E332D095315}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_list" sheetId="5" r:id="rId1"/>
@@ -21534,7 +21534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF63E59B-CD68-4D47-B2B5-69F7A200F536}">
   <dimension ref="A1:L528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="bottomLeft"/>
@@ -38871,7 +38871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDBA3DC-EE54-ED46-B28D-C05BC8D1CA44}">
   <dimension ref="A1:E1737"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -68428,9 +68428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999C2C8B-BE0E-684F-9081-5F4EEA8A6218}">
   <dimension ref="A1:L495"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -78778,12 +78778,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L495" xr:uid="{999C2C8B-BE0E-684F-9081-5F4EEA8A6218}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L495">
-      <sortCondition ref="B2:B495"/>
-      <sortCondition ref="A2:A495"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:L495" xr:uid="{999C2C8B-BE0E-684F-9081-5F4EEA8A6218}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/beyond_pandas.xlsx
+++ b/beyond_pandas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brad/Documents/git/dnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455A5AD1-3F0C-524C-A083-E65134F3BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9BC30-CEA2-4740-8821-E65D242EE85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="1" xr2:uid="{5BD27400-5124-CB41-9002-4E332D095315}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{5BD27400-5124-CB41-9002-4E332D095315}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_list" sheetId="5" r:id="rId1"/>
@@ -6123,7 +6123,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6171,7 +6171,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>535</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21607,12 +21607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF63E59B-CD68-4D47-B2B5-69F7A200F536}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L535"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G552" sqref="G552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21665,7 +21666,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1892</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1496</v>
       </c>
@@ -21726,7 +21727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1586</v>
       </c>
@@ -21755,7 +21756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1860</v>
       </c>
@@ -21787,7 +21788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1893</v>
       </c>
@@ -21819,7 +21820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1551</v>
       </c>
@@ -21848,7 +21849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1509</v>
       </c>
@@ -21880,7 +21881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1574</v>
       </c>
@@ -21912,7 +21913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1463</v>
       </c>
@@ -21944,7 +21945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1529</v>
       </c>
@@ -21976,7 +21977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1801</v>
       </c>
@@ -22008,7 +22009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1607</v>
       </c>
@@ -22037,7 +22038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1688</v>
       </c>
@@ -22069,7 +22070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1715</v>
       </c>
@@ -22101,7 +22102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1797</v>
       </c>
@@ -22133,7 +22134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1802</v>
       </c>
@@ -22165,7 +22166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1678</v>
       </c>
@@ -22197,7 +22198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1759</v>
       </c>
@@ -22229,7 +22230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1737</v>
       </c>
@@ -22261,7 +22262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1587</v>
       </c>
@@ -22290,7 +22291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1894</v>
       </c>
@@ -22319,7 +22320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1932</v>
       </c>
@@ -22348,7 +22349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1933</v>
       </c>
@@ -22380,7 +22381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1895</v>
       </c>
@@ -22412,7 +22413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1819</v>
       </c>
@@ -22441,7 +22442,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1552</v>
       </c>
@@ -22473,7 +22474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1934</v>
       </c>
@@ -22505,7 +22506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1935</v>
       </c>
@@ -22537,7 +22538,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1936</v>
       </c>
@@ -22569,7 +22570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1689</v>
       </c>
@@ -22633,7 +22634,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1723</v>
       </c>
@@ -22700,7 +22701,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1559</v>
       </c>
@@ -22732,7 +22733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1937</v>
       </c>
@@ -22764,7 +22765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1497</v>
       </c>
@@ -22796,7 +22797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1560</v>
       </c>
@@ -22831,7 +22832,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1589</v>
       </c>
@@ -22866,7 +22867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1896</v>
       </c>
@@ -22898,7 +22899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1679</v>
       </c>
@@ -22933,7 +22934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1745</v>
       </c>
@@ -22968,7 +22969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1938</v>
       </c>
@@ -23000,7 +23001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1831</v>
       </c>
@@ -23029,7 +23030,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1485</v>
       </c>
@@ -23061,7 +23062,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1660</v>
       </c>
@@ -23093,7 +23094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1629</v>
       </c>
@@ -23128,7 +23129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1530</v>
       </c>
@@ -23160,7 +23161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1633</v>
       </c>
@@ -23189,7 +23190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1575</v>
       </c>
@@ -23221,7 +23222,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1981</v>
       </c>
@@ -23253,7 +23254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1861</v>
       </c>
@@ -23282,7 +23283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1571</v>
       </c>
@@ -23314,7 +23315,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1512</v>
       </c>
@@ -23346,7 +23347,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1620</v>
       </c>
@@ -23416,7 +23417,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1513</v>
       </c>
@@ -23448,7 +23449,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1590</v>
       </c>
@@ -23477,7 +23478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1523</v>
       </c>
@@ -23512,7 +23513,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1486</v>
       </c>
@@ -23544,7 +23545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1760</v>
       </c>
@@ -23576,7 +23577,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1514</v>
       </c>
@@ -23605,7 +23606,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1648</v>
       </c>
@@ -23637,7 +23638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1465</v>
       </c>
@@ -23669,7 +23670,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1862</v>
       </c>
@@ -23698,7 +23699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1515</v>
       </c>
@@ -23727,7 +23728,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1939</v>
       </c>
@@ -23759,7 +23760,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1940</v>
       </c>
@@ -23791,7 +23792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1591</v>
       </c>
@@ -23823,7 +23824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1806</v>
       </c>
@@ -23852,7 +23853,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1941</v>
       </c>
@@ -23884,7 +23885,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1728</v>
       </c>
@@ -23919,7 +23920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1516</v>
       </c>
@@ -23948,7 +23949,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1487</v>
       </c>
@@ -23980,7 +23981,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1706</v>
       </c>
@@ -24012,7 +24013,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1716</v>
       </c>
@@ -24044,7 +24045,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1504</v>
       </c>
@@ -24079,7 +24080,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1466</v>
       </c>
@@ -24111,7 +24112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1649</v>
       </c>
@@ -24146,7 +24147,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1942</v>
       </c>
@@ -24178,7 +24179,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1650</v>
       </c>
@@ -24213,7 +24214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1621</v>
       </c>
@@ -24245,7 +24246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1631</v>
       </c>
@@ -24277,7 +24278,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1781</v>
       </c>
@@ -24309,7 +24310,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1717</v>
       </c>
@@ -24341,7 +24342,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1752</v>
       </c>
@@ -24373,7 +24374,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1661</v>
       </c>
@@ -24405,7 +24406,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1725</v>
       </c>
@@ -24437,7 +24438,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1662</v>
       </c>
@@ -24469,7 +24470,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1733</v>
       </c>
@@ -24501,7 +24502,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1707</v>
       </c>
@@ -24533,7 +24534,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1764</v>
       </c>
@@ -24562,7 +24563,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1553</v>
       </c>
@@ -24591,7 +24592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1846</v>
       </c>
@@ -24620,7 +24621,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1657</v>
       </c>
@@ -24655,7 +24656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1798</v>
       </c>
@@ -24687,7 +24688,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1718</v>
       </c>
@@ -24722,7 +24723,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1943</v>
       </c>
@@ -24754,7 +24755,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1634</v>
       </c>
@@ -24783,7 +24784,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1847</v>
       </c>
@@ -24818,7 +24819,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1608</v>
       </c>
@@ -24847,7 +24848,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1765</v>
       </c>
@@ -24876,7 +24877,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1870</v>
       </c>
@@ -24905,7 +24906,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1488</v>
       </c>
@@ -24934,7 +24935,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1746</v>
       </c>
@@ -24963,7 +24964,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>42</v>
       </c>
@@ -24992,7 +24993,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1944</v>
       </c>
@@ -25027,7 +25028,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1945</v>
       </c>
@@ -25056,7 +25057,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1897</v>
       </c>
@@ -25088,7 +25089,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1467</v>
       </c>
@@ -25117,7 +25118,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1832</v>
       </c>
@@ -25149,7 +25150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1734</v>
       </c>
@@ -25181,7 +25182,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1871</v>
       </c>
@@ -25216,7 +25217,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1576</v>
       </c>
@@ -25248,7 +25249,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1561</v>
       </c>
@@ -25277,7 +25278,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1708</v>
       </c>
@@ -25312,7 +25313,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1609</v>
       </c>
@@ -25341,7 +25342,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1658</v>
       </c>
@@ -25370,7 +25371,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1787</v>
       </c>
@@ -25405,7 +25406,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1807</v>
       </c>
@@ -25434,7 +25435,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1724</v>
       </c>
@@ -25466,7 +25467,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1489</v>
       </c>
@@ -25498,7 +25499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1468</v>
       </c>
@@ -25533,7 +25534,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1490</v>
       </c>
@@ -25568,7 +25569,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1532</v>
       </c>
@@ -25603,7 +25604,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1651</v>
       </c>
@@ -25632,7 +25633,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1469</v>
       </c>
@@ -25661,7 +25662,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1761</v>
       </c>
@@ -25728,7 +25729,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1592</v>
       </c>
@@ -25757,7 +25758,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1470</v>
       </c>
@@ -25789,7 +25790,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1872</v>
       </c>
@@ -25818,7 +25819,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>446</v>
       </c>
@@ -25850,7 +25851,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1505</v>
       </c>
@@ -25914,7 +25915,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1663</v>
       </c>
@@ -25949,7 +25950,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1792</v>
       </c>
@@ -25984,7 +25985,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1690</v>
       </c>
@@ -26019,7 +26020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1873</v>
       </c>
@@ -26054,7 +26055,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1898</v>
       </c>
@@ -26089,7 +26090,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1899</v>
       </c>
@@ -26121,7 +26122,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1691</v>
       </c>
@@ -26153,7 +26154,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1982</v>
       </c>
@@ -26182,7 +26183,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1753</v>
       </c>
@@ -26211,7 +26212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1848</v>
       </c>
@@ -26240,7 +26241,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1562</v>
       </c>
@@ -26275,7 +26276,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1471</v>
       </c>
@@ -26307,7 +26308,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1563</v>
       </c>
@@ -26342,7 +26343,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1799</v>
       </c>
@@ -26377,7 +26378,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1869</v>
       </c>
@@ -26406,7 +26407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1664</v>
       </c>
@@ -26441,7 +26442,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1630</v>
       </c>
@@ -26473,7 +26474,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1874</v>
       </c>
@@ -26502,7 +26503,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1593</v>
       </c>
@@ -26537,7 +26538,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1729</v>
       </c>
@@ -26572,7 +26573,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1533</v>
       </c>
@@ -26604,7 +26605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1577</v>
       </c>
@@ -26639,7 +26640,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1510</v>
       </c>
@@ -26674,7 +26675,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1498</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1534</v>
       </c>
@@ -26741,7 +26742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1622</v>
       </c>
@@ -26773,7 +26774,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1772</v>
       </c>
@@ -26802,7 +26803,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1900</v>
       </c>
@@ -26837,7 +26838,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1517</v>
       </c>
@@ -26869,7 +26870,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1740</v>
       </c>
@@ -26904,7 +26905,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1680</v>
       </c>
@@ -26933,7 +26934,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1472</v>
       </c>
@@ -26968,7 +26969,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1681</v>
       </c>
@@ -26997,7 +26998,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1518</v>
       </c>
@@ -27026,7 +27027,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1730</v>
       </c>
@@ -27058,7 +27059,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1875</v>
       </c>
@@ -27093,7 +27094,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1594</v>
       </c>
@@ -27128,7 +27129,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1473</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1793</v>
       </c>
@@ -27189,7 +27190,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1595</v>
       </c>
@@ -27221,7 +27222,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1526</v>
       </c>
@@ -27253,7 +27254,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1671</v>
       </c>
@@ -27282,7 +27283,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1572</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1983</v>
       </c>
@@ -27343,7 +27344,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1554</v>
       </c>
@@ -27372,7 +27373,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1946</v>
       </c>
@@ -27404,7 +27405,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1863</v>
       </c>
@@ -27433,7 +27434,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1682</v>
       </c>
@@ -27462,7 +27463,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1783</v>
       </c>
@@ -27494,7 +27495,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1635</v>
       </c>
@@ -27526,7 +27527,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1901</v>
       </c>
@@ -27558,7 +27559,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1623</v>
       </c>
@@ -27590,7 +27591,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1564</v>
       </c>
@@ -27622,7 +27623,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1710</v>
       </c>
@@ -27654,7 +27655,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1565</v>
       </c>
@@ -27689,7 +27690,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1766</v>
       </c>
@@ -27724,7 +27725,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1527</v>
       </c>
@@ -27756,7 +27757,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1947</v>
       </c>
@@ -27788,7 +27789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1636</v>
       </c>
@@ -27820,7 +27821,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1499</v>
       </c>
@@ -27852,7 +27853,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1747</v>
       </c>
@@ -27916,7 +27917,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1813</v>
       </c>
@@ -27945,7 +27946,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1902</v>
       </c>
@@ -27974,7 +27975,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1948</v>
       </c>
@@ -28003,7 +28004,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1767</v>
       </c>
@@ -28035,7 +28036,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1833</v>
       </c>
@@ -28067,7 +28068,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1876</v>
       </c>
@@ -28099,7 +28100,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1849</v>
       </c>
@@ -28131,7 +28132,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1903</v>
       </c>
@@ -28160,7 +28161,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1904</v>
       </c>
@@ -28189,7 +28190,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1637</v>
       </c>
@@ -28221,7 +28222,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1820</v>
       </c>
@@ -28253,7 +28254,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1692</v>
       </c>
@@ -28285,7 +28286,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1555</v>
       </c>
@@ -28317,7 +28318,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1665</v>
       </c>
@@ -28349,7 +28350,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1949</v>
       </c>
@@ -28378,7 +28379,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1950</v>
       </c>
@@ -28407,7 +28408,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1794</v>
       </c>
@@ -28436,7 +28437,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1951</v>
       </c>
@@ -28468,7 +28469,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1952</v>
       </c>
@@ -28500,7 +28501,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1500</v>
       </c>
@@ -28529,7 +28530,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1666</v>
       </c>
@@ -28564,7 +28565,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1877</v>
       </c>
@@ -28596,7 +28597,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1878</v>
       </c>
@@ -28628,7 +28629,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1528</v>
       </c>
@@ -28660,7 +28661,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1652</v>
       </c>
@@ -28692,7 +28693,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1693</v>
       </c>
@@ -28721,7 +28722,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1864</v>
       </c>
@@ -28750,7 +28751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1953</v>
       </c>
@@ -28782,7 +28783,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1954</v>
       </c>
@@ -28814,7 +28815,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1741</v>
       </c>
@@ -28843,7 +28844,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1842</v>
       </c>
@@ -28875,7 +28876,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1491</v>
       </c>
@@ -28904,7 +28905,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1850</v>
       </c>
@@ -28936,7 +28937,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1955</v>
       </c>
@@ -28971,7 +28972,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1956</v>
       </c>
@@ -29038,7 +29039,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1653</v>
       </c>
@@ -29067,7 +29068,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1748</v>
       </c>
@@ -29099,7 +29100,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1638</v>
       </c>
@@ -29131,7 +29132,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1749</v>
       </c>
@@ -29160,7 +29161,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1566</v>
       </c>
@@ -29192,7 +29193,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1474</v>
       </c>
@@ -29221,7 +29222,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1535</v>
       </c>
@@ -29253,7 +29254,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1524</v>
       </c>
@@ -29285,7 +29286,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1750</v>
       </c>
@@ -29314,7 +29315,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1475</v>
       </c>
@@ -29346,7 +29347,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1525</v>
       </c>
@@ -29378,7 +29379,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1476</v>
       </c>
@@ -29413,7 +29414,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1694</v>
       </c>
@@ -29448,7 +29449,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1536</v>
       </c>
@@ -29483,7 +29484,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1800</v>
       </c>
@@ -29518,7 +29519,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1712</v>
       </c>
@@ -29553,7 +29554,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1957</v>
       </c>
@@ -29588,7 +29589,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1905</v>
       </c>
@@ -29620,7 +29621,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1596</v>
       </c>
@@ -29655,7 +29656,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1501</v>
       </c>
@@ -29687,7 +29688,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1667</v>
       </c>
@@ -29719,7 +29720,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1477</v>
       </c>
@@ -29751,7 +29752,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1808</v>
       </c>
@@ -29786,7 +29787,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1478</v>
       </c>
@@ -29818,7 +29819,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1731</v>
       </c>
@@ -29853,7 +29854,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1879</v>
       </c>
@@ -29882,7 +29883,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1827</v>
       </c>
@@ -29914,7 +29915,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1805</v>
       </c>
@@ -29949,7 +29950,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1880</v>
       </c>
@@ -29984,7 +29985,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1735</v>
       </c>
@@ -30016,7 +30017,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1851</v>
       </c>
@@ -30048,7 +30049,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1492</v>
       </c>
@@ -30077,7 +30078,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1713</v>
       </c>
@@ -30112,7 +30113,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1768</v>
       </c>
@@ -30144,7 +30145,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1597</v>
       </c>
@@ -30176,7 +30177,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1958</v>
       </c>
@@ -30211,7 +30212,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1959</v>
       </c>
@@ -30246,7 +30247,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1960</v>
       </c>
@@ -30281,7 +30282,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1961</v>
       </c>
@@ -30316,7 +30317,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1537</v>
       </c>
@@ -30348,7 +30349,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1828</v>
       </c>
@@ -30380,7 +30381,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1906</v>
       </c>
@@ -30412,7 +30413,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1907</v>
       </c>
@@ -30441,7 +30442,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1502</v>
       </c>
@@ -30470,7 +30471,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1538</v>
       </c>
@@ -30499,7 +30500,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1695</v>
       </c>
@@ -30528,7 +30529,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1908</v>
       </c>
@@ -30557,7 +30558,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1909</v>
       </c>
@@ -30589,7 +30590,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1539</v>
       </c>
@@ -30618,7 +30619,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1578</v>
       </c>
@@ -30653,7 +30654,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1610</v>
       </c>
@@ -30682,7 +30683,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1176</v>
       </c>
@@ -30714,7 +30715,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1632</v>
       </c>
@@ -30749,7 +30750,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1639</v>
       </c>
@@ -30781,7 +30782,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1865</v>
       </c>
@@ -30813,7 +30814,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1540</v>
       </c>
@@ -30845,7 +30846,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1654</v>
       </c>
@@ -30877,7 +30878,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1541</v>
       </c>
@@ -30909,7 +30910,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1479</v>
       </c>
@@ -30938,7 +30939,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1809</v>
       </c>
@@ -30973,7 +30974,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1719</v>
       </c>
@@ -31008,7 +31009,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1519</v>
       </c>
@@ -31037,7 +31038,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1834</v>
       </c>
@@ -31130,7 +31131,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1520</v>
       </c>
@@ -31159,7 +31160,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1542</v>
       </c>
@@ -31191,7 +31192,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1852</v>
       </c>
@@ -31220,7 +31221,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1573</v>
       </c>
@@ -31252,7 +31253,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1774</v>
       </c>
@@ -31281,7 +31282,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1881</v>
       </c>
@@ -31313,7 +31314,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1598</v>
       </c>
@@ -31345,7 +31346,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1696</v>
       </c>
@@ -31374,7 +31375,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1821</v>
       </c>
@@ -31403,7 +31404,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1612</v>
       </c>
@@ -31432,7 +31433,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1814</v>
       </c>
@@ -31467,7 +31468,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1742</v>
       </c>
@@ -31499,7 +31500,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1910</v>
       </c>
@@ -31534,7 +31535,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1810</v>
       </c>
@@ -31566,7 +31567,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1613</v>
       </c>
@@ -31598,7 +31599,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1911</v>
       </c>
@@ -31627,7 +31628,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1912</v>
       </c>
@@ -31662,7 +31663,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1835</v>
       </c>
@@ -31691,7 +31692,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1762</v>
       </c>
@@ -31726,7 +31727,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1836</v>
       </c>
@@ -31755,7 +31756,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1824</v>
       </c>
@@ -31787,7 +31788,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1811</v>
       </c>
@@ -31816,7 +31817,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1795</v>
       </c>
@@ -31845,7 +31846,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1866</v>
       </c>
@@ -31877,7 +31878,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1579</v>
       </c>
@@ -31912,7 +31913,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1837</v>
       </c>
@@ -31941,7 +31942,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1775</v>
       </c>
@@ -31970,7 +31971,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1580</v>
       </c>
@@ -31999,7 +32000,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1697</v>
       </c>
@@ -32031,7 +32032,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1581</v>
       </c>
@@ -32060,7 +32061,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1698</v>
       </c>
@@ -32095,7 +32096,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1853</v>
       </c>
@@ -32124,7 +32125,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1567</v>
       </c>
@@ -32159,7 +32160,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1913</v>
       </c>
@@ -32188,7 +32189,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1914</v>
       </c>
@@ -32217,7 +32218,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1915</v>
       </c>
@@ -32246,7 +32247,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1916</v>
       </c>
@@ -32278,7 +32279,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1882</v>
       </c>
@@ -32307,7 +32308,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1754</v>
       </c>
@@ -32339,7 +32340,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1917</v>
       </c>
@@ -32371,7 +32372,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1736</v>
       </c>
@@ -32403,7 +32404,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1599</v>
       </c>
@@ -32432,7 +32433,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1918</v>
       </c>
@@ -32461,7 +32462,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1919</v>
       </c>
@@ -32496,7 +32497,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1920</v>
       </c>
@@ -32528,7 +32529,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1921</v>
       </c>
@@ -32563,7 +32564,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1568</v>
       </c>
@@ -32595,7 +32596,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1738</v>
       </c>
@@ -32624,7 +32625,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1543</v>
       </c>
@@ -32659,7 +32660,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1683</v>
       </c>
@@ -32694,7 +32695,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1646</v>
       </c>
@@ -32726,7 +32727,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1751</v>
       </c>
@@ -32819,7 +32820,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1600</v>
       </c>
@@ -32848,7 +32849,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1854</v>
       </c>
@@ -32880,7 +32881,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1655</v>
       </c>
@@ -32915,7 +32916,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1815</v>
       </c>
@@ -32944,7 +32945,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1816</v>
       </c>
@@ -32973,7 +32974,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1788</v>
       </c>
@@ -33005,7 +33006,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1796</v>
       </c>
@@ -33034,7 +33035,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1962</v>
       </c>
@@ -33063,7 +33064,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1838</v>
       </c>
@@ -33092,7 +33093,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1855</v>
       </c>
@@ -33121,7 +33122,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1755</v>
       </c>
@@ -33153,7 +33154,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1789</v>
       </c>
@@ -33185,7 +33186,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1829</v>
       </c>
@@ -33217,7 +33218,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1684</v>
       </c>
@@ -33246,7 +33247,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1856</v>
       </c>
@@ -33275,7 +33276,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1743</v>
       </c>
@@ -33304,7 +33305,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1776</v>
       </c>
@@ -33336,7 +33337,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1614</v>
       </c>
@@ -33368,7 +33369,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1493</v>
       </c>
@@ -33400,7 +33401,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1556</v>
       </c>
@@ -33429,7 +33430,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1817</v>
       </c>
@@ -33461,7 +33462,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1883</v>
       </c>
@@ -33493,7 +33494,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1494</v>
       </c>
@@ -33525,7 +33526,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1544</v>
       </c>
@@ -33557,7 +33558,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1700</v>
       </c>
@@ -33586,7 +33587,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1922</v>
       </c>
@@ -33618,7 +33619,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1923</v>
       </c>
@@ -33650,7 +33651,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1884</v>
       </c>
@@ -33685,7 +33686,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1963</v>
       </c>
@@ -33720,7 +33721,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1964</v>
       </c>
@@ -33749,7 +33750,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1965</v>
       </c>
@@ -33781,7 +33782,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1885</v>
       </c>
@@ -33816,7 +33817,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1777</v>
       </c>
@@ -33845,7 +33846,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1720</v>
       </c>
@@ -33874,7 +33875,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1615</v>
       </c>
@@ -33903,7 +33904,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1685</v>
       </c>
@@ -33938,7 +33939,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1843</v>
       </c>
@@ -33970,7 +33971,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1778</v>
       </c>
@@ -33999,7 +34000,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1785</v>
       </c>
@@ -34034,7 +34035,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1616</v>
       </c>
@@ -34063,7 +34064,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1924</v>
       </c>
@@ -34095,7 +34096,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1588</v>
       </c>
@@ -34124,7 +34125,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1844</v>
       </c>
@@ -34156,7 +34157,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1495</v>
       </c>
@@ -34188,7 +34189,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1886</v>
       </c>
@@ -34220,7 +34221,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1763</v>
       </c>
@@ -34252,7 +34253,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1582</v>
       </c>
@@ -34281,7 +34282,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1701</v>
       </c>
@@ -34316,7 +34317,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1506</v>
       </c>
@@ -34351,7 +34352,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1686</v>
       </c>
@@ -34380,7 +34381,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1545</v>
       </c>
@@ -34441,7 +34442,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1601</v>
       </c>
@@ -34470,7 +34471,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1790</v>
       </c>
@@ -34499,7 +34500,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1583</v>
       </c>
@@ -34531,7 +34532,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1966</v>
       </c>
@@ -34563,7 +34564,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1857</v>
       </c>
@@ -34592,7 +34593,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1823</v>
       </c>
@@ -34624,7 +34625,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1546</v>
       </c>
@@ -34656,7 +34657,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1521</v>
       </c>
@@ -34685,7 +34686,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1967</v>
       </c>
@@ -34717,7 +34718,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1858</v>
       </c>
@@ -34746,7 +34747,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1867</v>
       </c>
@@ -34775,7 +34776,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1673</v>
       </c>
@@ -34810,7 +34811,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1547</v>
       </c>
@@ -34845,7 +34846,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1480</v>
       </c>
@@ -34877,7 +34878,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1791</v>
       </c>
@@ -34906,7 +34907,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1703</v>
       </c>
@@ -34938,7 +34939,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1548</v>
       </c>
@@ -34973,7 +34974,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1481</v>
       </c>
@@ -35002,7 +35003,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1624</v>
       </c>
@@ -35037,7 +35038,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1640</v>
       </c>
@@ -35072,7 +35073,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1503</v>
       </c>
@@ -35104,7 +35105,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1925</v>
       </c>
@@ -35136,7 +35137,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1770</v>
       </c>
@@ -35165,7 +35166,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1984</v>
       </c>
@@ -35194,7 +35195,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1482</v>
       </c>
@@ -35226,7 +35227,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1602</v>
       </c>
@@ -35255,7 +35256,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1603</v>
       </c>
@@ -35284,7 +35285,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1584</v>
       </c>
@@ -35316,7 +35317,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1569</v>
       </c>
@@ -35348,7 +35349,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1617</v>
       </c>
@@ -35383,7 +35384,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1618</v>
       </c>
@@ -35415,7 +35416,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1557</v>
       </c>
@@ -35444,7 +35445,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1672</v>
       </c>
@@ -35479,7 +35480,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1726</v>
       </c>
@@ -35508,7 +35509,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1604</v>
       </c>
@@ -35543,7 +35544,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1659</v>
       </c>
@@ -35572,7 +35573,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1668</v>
       </c>
@@ -35604,7 +35605,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1968</v>
       </c>
@@ -35639,7 +35640,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1674</v>
       </c>
@@ -35674,7 +35675,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1549</v>
       </c>
@@ -35709,7 +35710,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1676</v>
       </c>
@@ -35741,7 +35742,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1570</v>
       </c>
@@ -35773,7 +35774,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1714</v>
       </c>
@@ -35805,7 +35806,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1687</v>
       </c>
@@ -35837,7 +35838,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1887</v>
       </c>
@@ -35869,7 +35870,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1669</v>
       </c>
@@ -35901,7 +35902,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1625</v>
       </c>
@@ -35933,7 +35934,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1771</v>
       </c>
@@ -35965,7 +35966,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1677</v>
       </c>
@@ -35997,7 +35998,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1642</v>
       </c>
@@ -36029,7 +36030,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1643</v>
       </c>
@@ -36061,7 +36062,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1644</v>
       </c>
@@ -36093,7 +36094,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1756</v>
       </c>
@@ -36128,7 +36129,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1803</v>
       </c>
@@ -36160,7 +36161,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1727</v>
       </c>
@@ -36192,7 +36193,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1868</v>
       </c>
@@ -36224,7 +36225,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1779</v>
       </c>
@@ -36253,7 +36254,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1704</v>
       </c>
@@ -36285,7 +36286,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1926</v>
       </c>
@@ -36320,7 +36321,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1927</v>
       </c>
@@ -36355,7 +36356,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1928</v>
       </c>
@@ -36387,7 +36388,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1929</v>
       </c>
@@ -36419,7 +36420,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1732</v>
       </c>
@@ -36451,7 +36452,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1739</v>
       </c>
@@ -36483,7 +36484,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1812</v>
       </c>
@@ -36512,7 +36513,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1780</v>
       </c>
@@ -36541,7 +36542,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1705</v>
       </c>
@@ -36602,7 +36603,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1888</v>
       </c>
@@ -36634,7 +36635,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1930</v>
       </c>
@@ -36666,7 +36667,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1931</v>
       </c>
@@ -36698,7 +36699,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1889</v>
       </c>
@@ -36733,7 +36734,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1845</v>
       </c>
@@ -36762,7 +36763,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1859</v>
       </c>
@@ -36791,7 +36792,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1641</v>
       </c>
@@ -36823,7 +36824,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1839</v>
       </c>
@@ -36855,7 +36856,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1507</v>
       </c>
@@ -36890,7 +36891,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1483</v>
       </c>
@@ -36922,7 +36923,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1626</v>
       </c>
@@ -36954,7 +36955,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1890</v>
       </c>
@@ -36986,7 +36987,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1825</v>
       </c>
@@ -37015,7 +37016,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1605</v>
       </c>
@@ -37047,7 +37048,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1647</v>
       </c>
@@ -37076,7 +37077,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1986</v>
       </c>
@@ -37108,7 +37109,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1606</v>
       </c>
@@ -37137,7 +37138,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1721</v>
       </c>
@@ -37169,7 +37170,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1757</v>
       </c>
@@ -37198,7 +37199,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1722</v>
       </c>
@@ -37230,7 +37231,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1818</v>
       </c>
@@ -37265,7 +37266,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1822</v>
       </c>
@@ -37294,7 +37295,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1744</v>
       </c>
@@ -37323,7 +37324,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1840</v>
       </c>
@@ -37355,7 +37356,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1804</v>
       </c>
@@ -37390,7 +37391,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1484</v>
       </c>
@@ -37422,7 +37423,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1645</v>
       </c>
@@ -37454,7 +37455,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1841</v>
       </c>
@@ -37486,7 +37487,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1675</v>
       </c>
@@ -37518,7 +37519,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1969</v>
       </c>
@@ -37553,7 +37554,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1970</v>
       </c>
@@ -37585,7 +37586,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1971</v>
       </c>
@@ -37620,7 +37621,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1972</v>
       </c>
@@ -37655,7 +37656,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1973</v>
       </c>
@@ -37687,7 +37688,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1974</v>
       </c>
@@ -37719,7 +37720,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1975</v>
       </c>
@@ -37754,7 +37755,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1976</v>
       </c>
@@ -37786,7 +37787,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1558</v>
       </c>
@@ -37815,7 +37816,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1550</v>
       </c>
@@ -37847,7 +37848,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1627</v>
       </c>
@@ -37879,7 +37880,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1619</v>
       </c>
@@ -37911,7 +37912,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1670</v>
       </c>
@@ -37946,7 +37947,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1585</v>
       </c>
@@ -37981,7 +37982,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1830</v>
       </c>
@@ -38016,7 +38017,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1786</v>
       </c>
@@ -38051,7 +38052,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1758</v>
       </c>
@@ -38080,7 +38081,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1628</v>
       </c>
@@ -38115,7 +38116,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1826</v>
       </c>
@@ -38144,7 +38145,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1522</v>
       </c>
@@ -38176,7 +38177,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1977</v>
       </c>
@@ -38208,7 +38209,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1978</v>
       </c>
@@ -38237,7 +38238,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1979</v>
       </c>
@@ -38272,7 +38273,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1508</v>
       </c>
@@ -38307,7 +38308,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1891</v>
       </c>
@@ -38342,7 +38343,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1511</v>
       </c>
@@ -38406,7 +38407,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1917</v>
       </c>
@@ -38436,7 +38437,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1924</v>
       </c>
@@ -38467,7 +38468,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1895</v>
       </c>
@@ -38497,7 +38498,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1923</v>
       </c>
@@ -38528,7 +38529,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1887</v>
       </c>
@@ -38558,7 +38559,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1901</v>
       </c>
@@ -38588,7 +38589,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1873</v>
       </c>
@@ -38622,7 +38623,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L535" xr:uid="{EF63E59B-CD68-4D47-B2B5-69F7A200F536}"/>
+  <autoFilter ref="A1:L535" xr:uid="{EF63E59B-CD68-4D47-B2B5-69F7A200F536}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="CHA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" display="https://www.dndbeyond.com/spells/abi-dalzims-horrid-wilting" xr:uid="{73EBFDC0-1A65-5744-9961-D1325F698500}"/>
     <hyperlink ref="L3" r:id="rId2" display="https://www.dndbeyond.com/spells/absorb-elements" xr:uid="{88C6F92F-FA77-DA4A-AA3D-821129DE6C95}"/>
@@ -39168,7 +39175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDBA3DC-EE54-ED46-B28D-C05BC8D1CA44}">
   <dimension ref="A1:E1740"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1715" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
